--- a/data/MN_LOKI_compar.xlsx
+++ b/data/MN_LOKI_compar.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,120 +471,135 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Metridia CI-V</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Metridia adult</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Metridia</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Microcalanus</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Oithona</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Oncaea</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Paraeuchaeta</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Pseudocalanus</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Themisto</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>depth_min</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>depth_max</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>station</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>l_Chaetognatha</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>l_Rhizaria</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>l_Ostracoda</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>l_Calanus CI-III</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>l_Calanus &gt;CIV</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>l_Calanus</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>l_Heterorhabdus</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>l_Metridia</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>l_Metridia CI-V</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>l_Metridia adult</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>l_Microcalanus</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>l_Oithona</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>l_Oncaea</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>l_Paraeuchaeta</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>l_Pseudocalanus</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>l_Themisto</t>
         </is>
@@ -620,40 +634,40 @@
         <v>1.33</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L2" t="n">
         <v>16.67</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>798.9900000000001</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>6.67</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>10</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>10</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>PS107_016-5</t>
         </is>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
@@ -661,33 +675,42 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.935798601168251</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.935798601168251</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.935798601168251</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0.935798601168251</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.935798601168251</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.935798601168251</v>
       </c>
       <c r="AF2" t="n">
+        <v>0.935798601168251</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,74 +743,83 @@
         <v>0.13</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L3" t="n">
         <v>17.38</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>673.26</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>13.63</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.13</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>20</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>10</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>50</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>PS107_016-5</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>0.1169748251460314</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>1.169748251460314</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>0.7018489508761883</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>0.4678993005841255</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>7.954288109930133</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>10.64470908828886</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6.199665732739662</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.1169748251460314</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
         <v>3.509244754380942</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AE3" t="n">
         <v>0.8188237760222197</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
         <v>3.041345453796816</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>0.5848741257301568</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
         <v>0.1169748251460314</v>
       </c>
     </row>
@@ -817,77 +849,86 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.91</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>78.58</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>328.34</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>40.91</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>1.33</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>2.58</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>50</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>100</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>PS107_016-5</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>1.403697901752377</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>1.310118041635552</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>0.3743194404673004</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>0.2807395803504753</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>16.84437482102852</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>18.52881230313137</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4.02393398502348</v>
-      </c>
       <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11.88464223483679</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.871597202336502</v>
+      </c>
+      <c r="AD4" t="n">
         <v>11.32316307413584</v>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
         <v>7.579968669462832</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AG4" t="n">
         <v>0.5614791607009506</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
         <v>0.842218741051426</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
         <v>0.6550590208177758</v>
       </c>
     </row>
@@ -917,77 +958,86 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>141.08</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>86.52000000000001</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>39.44</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.9199999999999999</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.4</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.2</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>100</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>200</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>PS107_016-5</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>1.263328111577139</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>1.637647552044439</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>0.514689230642538</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>0.09357986011682509</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>13.52228978688123</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>11.97822209495361</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>5.240472166542205</v>
-      </c>
       <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.690959998352994</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3.368874964205703</v>
+      </c>
+      <c r="AD5" t="n">
         <v>3.462454824322529</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
         <v>0.09357986011682509</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AF5" t="n">
         <v>2.713815943387928</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AG5" t="n">
         <v>0.6082690907593631</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AH5" t="n">
         <v>0.421109370525713</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
         <v>0.2807395803504753</v>
       </c>
     </row>
@@ -1008,86 +1058,95 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>5.970000000000001</v>
+        <v>5.97</v>
       </c>
       <c r="G6" t="n">
-        <v>6.040000000000001</v>
+        <v>6.04</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K6" t="n">
         <v>36.86</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>199.74</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>23.41</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>23.48</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0.93</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>0.26</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0.19</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>200</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>300</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>PS107_016-5</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>1.263328111577139</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>0.7954288109930133</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>0.3743194404673004</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>10.20020475273394</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>7.34601901917077</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>6.878119718586644</v>
-      </c>
       <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.34601901917077</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.433076363037453</v>
+      </c>
+      <c r="AD6" t="n">
         <v>4.77257286595808</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
         <v>0.1871597202336502</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
         <v>2.245916642803803</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
         <v>0.421109370525713</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>0.2339496502920627</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>0.1871597202336502</v>
       </c>
     </row>
@@ -1117,46 +1176,46 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>4.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L7" t="n">
         <v>8.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>13126</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>10.5</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>51</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>10</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>PS107_010-6</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>0.976081322410593</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1179,15 +1238,24 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>0.976081322410593</v>
       </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>0.976081322410593</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,77 +1285,86 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.54</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>5.369999999999999</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>8786.360000000001</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>6.18</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>161.82</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0.09</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>10</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>50</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>PS107_010-6</t>
         </is>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>1.098091487711917</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>0.4880406612052965</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>0.1220101653013241</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>8.174681075188717</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>23.30394157255291</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>43.31360868197007</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.464121983615889</v>
-      </c>
       <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>24.15801272966218</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1220101653013241</v>
+      </c>
+      <c r="AD8" t="n">
         <v>4.514376116148993</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
         <v>3.782315124341048</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AF8" t="n">
         <v>15.73931132387081</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="n">
         <v>0.2440203306026482</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
         <v>25.01208388677145</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>0.1220101653013241</v>
       </c>
     </row>
@@ -1317,77 +1394,86 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.36</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>8.76</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>890.17</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>35.94</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.29</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>48.4</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>0.71</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>50</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>100</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>PS107_010-6</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>1.073689454651652</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>0.2928243967231779</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>0.0976081322410593</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>2.537811438267542</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>26.45180383732707</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>39.3360772931469</v>
       </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.659338248098008</v>
-      </c>
       <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>25.37811438267542</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1952162644821186</v>
+      </c>
+      <c r="AD9" t="n">
         <v>2.635419570508601</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
         <v>0.2928243967231779</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
         <v>9.467988827382753</v>
       </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>13.76274664598936</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1417,77 +1503,86 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="K10" t="n">
         <v>16.39</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>33.64</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>96.02000000000001</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>34.24</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.54</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>5.85</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>0.15</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>100</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>200</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>PS107_010-6</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>2.977048033352309</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>0.7808650579284744</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>0.6344528595668855</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>0.4392365950847668</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>23.76758020069794</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>18.69195732416286</v>
       </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15.66610522469002</v>
-      </c>
       <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12.29862466237347</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.05363762082911</v>
+      </c>
+      <c r="AD10" t="n">
         <v>3.221068363954957</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>0.2440203306026482</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>24.40203306026483</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="n">
         <v>0.4392365950847668</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>3.025852099472838</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>0.8296691240490039</v>
       </c>
     </row>
@@ -1517,77 +1612,86 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="K11" t="n">
         <v>39.97</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>55.88</v>
       </c>
-      <c r="K11" t="n">
-        <v>70.71000000000001</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>70.70999999999999</v>
+      </c>
+      <c r="N11" t="n">
         <v>26.58</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.06</v>
       </c>
       <c r="O11" t="n">
         <v>0.74</v>
       </c>
       <c r="P11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R11" t="n">
         <v>200</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>300</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>PS107_010-6</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>3.611500892919195</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>0.7808650579284745</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>0.4880406612052965</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>0.0976081322410593</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>51.00024909595349</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>37.23750244996413</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>30.6001494575721</v>
-      </c>
       <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>25.57333064715754</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23.91399239905953</v>
+      </c>
+      <c r="AD11" t="n">
         <v>1.46412198361589</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AE11" t="n">
         <v>0.1952162644821186</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AF11" t="n">
         <v>8.638319703333746</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="n">
         <v>0.04880406612052965</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
         <v>0.5368447273258261</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
         <v>0.8296691240490039</v>
       </c>
     </row>
@@ -1617,43 +1721,43 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.05</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L12" t="n">
         <v>15</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>4919</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>7</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>19.5</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>0.5</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>10</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>PS107_012-5</t>
         </is>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
@@ -1688,6 +1792,15 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,83 +1824,92 @@
         <v>26.3</v>
       </c>
       <c r="G13" t="n">
-        <v>66.2</v>
+        <v>66.19999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1.9</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>4346.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>1.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>57</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>0.4</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>10</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>50</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>PS107_012-5</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>0.2405684652078338</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>0.7217053956235016</v>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>4.330232373741009</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>9.141601677897686</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>17.32092949496404</v>
       </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.7217053956235016</v>
-      </c>
       <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.660464747482019</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.1603789768052226</v>
+      </c>
+      <c r="AD13" t="n">
         <v>1.363221302844392</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AE13" t="n">
         <v>0.6415159072208902</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
         <v>2.566063628883561</v>
       </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
         <v>9.061412189495076</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
         <v>0.4009474420130564</v>
       </c>
     </row>
@@ -1817,77 +1939,86 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.33</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>9.83</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1565.25</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>50.42</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>0.41</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>63.42</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0.17</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>50</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>100</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>PS107_012-5</t>
         </is>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>0.6415159072208902</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>0.5132127257767122</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>0.128303181444178</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>2.950973173216095</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>20.59266062179058</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>33.9361914919851</v>
       </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.8339706793871573</v>
-      </c>
       <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16.61526199702106</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.3207579536104451</v>
+      </c>
+      <c r="AD14" t="n">
         <v>1.667941358774315</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
         <v>1.154728632997603</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AF14" t="n">
         <v>3.143427945382363</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AG14" t="n">
         <v>0.1924547721662671</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AH14" t="n">
         <v>6.800068616541436</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
         <v>0.3207579536104451</v>
       </c>
     </row>
@@ -1908,86 +2039,95 @@
         <v>1.56</v>
       </c>
       <c r="F15" t="n">
-        <v>35.64000000000001</v>
+        <v>35.64</v>
       </c>
       <c r="G15" t="n">
-        <v>37.20000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>7.12</v>
       </c>
-      <c r="J15" t="n">
-        <v>93.67999999999999</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
+        <v>93.68000000000001</v>
+      </c>
+      <c r="M15" t="n">
         <v>127.24</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>33.44</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>0.72</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>10.04</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>0.16</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>100</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>200</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>PS107_012-5</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>1.283031814441781</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>0.2245305675273116</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>0.3207579536104451</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
         <v>0.128303181444178</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>19.91906891920864</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>23.51155799964563</v>
       </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>4.234004987657876</v>
-      </c>
       <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.334056450063954</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3.047200559299229</v>
+      </c>
+      <c r="AD15" t="n">
         <v>2.822669991771918</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AE15" t="n">
         <v>0.6735917025819349</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AF15" t="n">
         <v>5.90194634643219</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AG15" t="n">
         <v>0.4169853396935787</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
         <v>1.475486586608047</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
         <v>0.5452885211377568</v>
       </c>
     </row>
@@ -2017,77 +2157,86 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="K16" t="n">
         <v>22.48</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>121.92</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>140.88</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>51.12</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>0.68</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>4.04</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>0.6</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>200</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>300</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>PS107_012-5</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>4.073626010852653</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>0.4811369304156677</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>0.6735917025819349</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
         <v>0.128303181444178</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>29.15689798318946</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>23.73608856717294</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AA16" t="n">
         <v>0.09622738608313354</v>
       </c>
-      <c r="Z16" t="n">
-        <v>18.02659699290702</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
+        <v>17.83414222074075</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11.41898314853185</v>
+      </c>
+      <c r="AD16" t="n">
         <v>3.656640671159074</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AE16" t="n">
         <v>0.6735917025819349</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AF16" t="n">
         <v>10.90577042275513</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="n">
         <v>0.2566063628883561</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
         <v>1.28303181444178</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
         <v>1.218880223719691</v>
       </c>
     </row>
@@ -2120,40 +2269,40 @@
         <v>0.33</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L17" t="n">
         <v>10.33</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>674.6600000000001</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>12.67</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>3.67</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>10</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>PS107_014-6</t>
         </is>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
@@ -2164,14 +2313,14 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>1.324838469069659</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -2188,6 +2337,15 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2211,83 +2369,92 @@
         <v>35.45</v>
       </c>
       <c r="G18" t="n">
-        <v>98</v>
+        <v>97.99999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.18</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L18" t="n">
         <v>7.819999999999999</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1188.18</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>42.64</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>0.27</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>30.18</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>0.09</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>10</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>50</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>PS107_014-6</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>0.248407212950561</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>1.987257703604488</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>0.3312096172674147</v>
       </c>
-      <c r="V18" t="n">
+      <c r="X18" t="n">
         <v>2.980886555406732</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>13.74519911659771</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>24.67511648642239</v>
       </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.1656048086337073</v>
-      </c>
       <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11.50953420004266</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.4140120215842683</v>
+      </c>
+      <c r="AD18" t="n">
         <v>4.057317811525829</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.993628851802244</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5.050946663328074</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.08280240431685366</v>
       </c>
       <c r="AE18" t="n">
         <v>0.993628851802244</v>
       </c>
       <c r="AF18" t="n">
+        <v>5.050946663328074</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.08280240431685366</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.993628851802244</v>
+      </c>
+      <c r="AI18" t="n">
         <v>0.08280240431685366</v>
       </c>
     </row>
@@ -2317,77 +2484,86 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.28</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>34.86</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>163.21</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>59.71</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>0.64</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>6.14</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>0.29</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>50</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>100</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>PS107_014-6</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>0.993628851802244</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>0.6624192345348294</v>
       </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>0.1987257703604488</v>
       </c>
-      <c r="V19" t="n">
+      <c r="X19" t="n">
         <v>0.6624192345348293</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
         <v>16.16302932264984</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>23.84709244325385</v>
       </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.1324838469069659</v>
-      </c>
       <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15.16940047084759</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.06624192345348293</v>
+      </c>
+      <c r="AD19" t="n">
         <v>1.656048086337073</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AE19" t="n">
         <v>0.3312096172674147</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AF19" t="n">
         <v>3.312096172674146</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AG19" t="n">
         <v>0.06624192345348293</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AH19" t="n">
         <v>0.7286611579883122</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AI19" t="n">
         <v>0.1324838469069659</v>
       </c>
     </row>
@@ -2417,77 +2593,86 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K20" t="n">
         <v>5.85</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>106.38</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>66.48</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>22.52</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>1.11</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>1.51</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>100</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>200</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>PS107_014-6</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>1.424201354249883</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>0.6292982728080879</v>
       </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>0.2649676938139317</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>0.1324838469069659</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>24.77447937160262</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>33.41905038228213</v>
       </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.7949030814417953</v>
-      </c>
       <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17.42162586826601</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.3312096172674147</v>
+      </c>
+      <c r="AD20" t="n">
         <v>1.556685201156849</v>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
         <v>2.616555976412576</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AG20" t="n">
         <v>0.3312096172674147</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
         <v>0.2980886555406732</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AI20" t="n">
         <v>0.1324838469069659</v>
       </c>
     </row>
@@ -2517,77 +2702,86 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9.309999999999999</v>
+      </c>
+      <c r="K21" t="n">
         <v>33.31</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>17.45</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>12.13</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>1.1</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>0.52</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>0.51</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>200</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>300</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>PS107_014-6</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>0.5961773110813464</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>0.1987257703604488</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
         <v>0.1324838469069659</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>16.03054547574287</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>9.969409479749178</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AA21" t="n">
         <v>0.03312096172674146</v>
       </c>
-      <c r="Z21" t="n">
-        <v>10.4662239056503</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
+        <v>7.419095426790088</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>6.856039077435485</v>
+      </c>
+      <c r="AD21" t="n">
         <v>1.523564239430108</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AE21" t="n">
         <v>0.06624192345348293</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AF21" t="n">
         <v>2.48407212950561</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AG21" t="n">
         <v>0.1656048086337073</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AH21" t="n">
         <v>0.3312096172674147</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
         <v>0.1987257703604488</v>
       </c>
     </row>
